--- a/src/ExcelsiorAspose.Tests/Tests.Render.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.Render.verified.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$5</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -523,11 +525,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="11.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="21.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="10.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="12.7142857142857" customWidth="1"/>
-    <col min="6" max="7" width="9.71428571428571" customWidth="1"/>
+    <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="15.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="10.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="9.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
@@ -646,6 +650,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G5"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/ExcelsiorAspose.Tests/Tests.Render.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.Render.verified.xlsx
@@ -534,7 +534,7 @@
     <col min="7" max="7" width="9.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
+    <row r="1" spans="1:7" ht="13" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75">
+    <row r="2" spans="1:7" ht="13" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -580,7 +580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75">
+    <row r="3" spans="1:7" ht="13" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75">
+    <row r="4" spans="1:7" ht="13" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/Tests.Render.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.Render.verified.xlsx
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75">
+    <row r="5" spans="1:7" ht="13" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/Tests.Render.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.Render.verified.xlsx
@@ -43,7 +43,7 @@
     <t>John Doe</t>
   </si>
   <si>
-    <t>📧 john@company.com</t>
+    <t>✉ john@company.com</t>
   </si>
   <si>
     <t>✓ Active</t>
@@ -55,13 +55,13 @@
     <t>Jane Smith</t>
   </si>
   <si>
-    <t>📧 jane@company.com</t>
+    <t>✉ jane@company.com</t>
   </si>
   <si>
     <t>Bob Johnson</t>
   </si>
   <si>
-    <t>📧 bob@company.com</t>
+    <t>✉ bob@company.com</t>
   </si>
   <si>
     <t>✗ Inactive</t>
@@ -73,7 +73,7 @@
     <t>Alice Brown</t>
   </si>
   <si>
-    <t>📧 alice@company.com</t>
+    <t>✉ alice@company.com</t>
   </si>
   <si>
     <t>Contract</t>
@@ -527,7 +527,7 @@
   <cols>
     <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="21.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="20.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="15.7142857142857" customWidth="1"/>
     <col min="6" max="6" width="10.7142857142857" customWidth="1"/>

--- a/src/ExcelsiorAspose.Tests/Tests.Render.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.Render.verified.xlsx
@@ -43,7 +43,7 @@
     <t>John Doe</t>
   </si>
   <si>
-    <t>📧 john@company.com</t>
+    <t>✉ john@company.com</t>
   </si>
   <si>
     <t>✓ Active</t>
@@ -55,13 +55,13 @@
     <t>Jane Smith</t>
   </si>
   <si>
-    <t>📧 jane@company.com</t>
+    <t>✉ jane@company.com</t>
   </si>
   <si>
     <t>Bob Johnson</t>
   </si>
   <si>
-    <t>📧 bob@company.com</t>
+    <t>✉ bob@company.com</t>
   </si>
   <si>
     <t>✗ Inactive</t>
@@ -73,7 +73,7 @@
     <t>Alice Brown</t>
   </si>
   <si>
-    <t>📧 alice@company.com</t>
+    <t>✉ alice@company.com</t>
   </si>
   <si>
     <t>Contract</t>
@@ -527,7 +527,7 @@
   <cols>
     <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="21.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="20.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="15.7142857142857" customWidth="1"/>
     <col min="6" max="6" width="10.7142857142857" customWidth="1"/>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75">
+    <row r="5" spans="1:7" ht="13" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/Tests.Render.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.Render.verified.xlsx
@@ -40,10 +40,10 @@
     <t>Status</t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>✉ john@company.com</t>
+    <t>JOHN DOE</t>
+  </si>
+  <si>
+    <t>john@company.com</t>
   </si>
   <si>
     <t>✓ Active</t>
@@ -52,16 +52,16 @@
     <t>Full Time</t>
   </si>
   <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
-    <t>✉ jane@company.com</t>
-  </si>
-  <si>
-    <t>Bob Johnson</t>
-  </si>
-  <si>
-    <t>✉ bob@company.com</t>
+    <t>JANE SMITH</t>
+  </si>
+  <si>
+    <t>jane@company.com</t>
+  </si>
+  <si>
+    <t>BOB JOHNSON</t>
+  </si>
+  <si>
+    <t>bob@company.com</t>
   </si>
   <si>
     <t>✗ Inactive</t>
@@ -70,10 +70,10 @@
     <t>Part Time</t>
   </si>
   <si>
-    <t>Alice Brown</t>
-  </si>
-  <si>
-    <t>✉ alice@company.com</t>
+    <t>ALICE BROWN</t>
+  </si>
+  <si>
+    <t>alice@company.com</t>
   </si>
   <si>
     <t>Contract</t>
@@ -525,9 +525,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="20.7142857142857" customWidth="1"/>
+    <col min="1" max="2" width="14.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="18.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="15.7142857142857" customWidth="1"/>
     <col min="6" max="6" width="10.7142857142857" customWidth="1"/>

--- a/src/ExcelsiorAspose.Tests/Tests.Render.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/Tests.Render.verified.xlsx
@@ -46,7 +46,7 @@
     <t>john@company.com</t>
   </si>
   <si>
-    <t>✓ Active</t>
+    <t>Active</t>
   </si>
   <si>
     <t>Full Time</t>
@@ -64,7 +64,7 @@
     <t>bob@company.com</t>
   </si>
   <si>
-    <t>✗ Inactive</t>
+    <t>Inactive</t>
   </si>
   <si>
     <t>Part Time</t>
@@ -125,10 +125,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -525,15 +525,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="14.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="18.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="15.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="10.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="9.71428571428571" customWidth="1"/>
+    <col min="1" max="2" width="15.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="19.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="12.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="16.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="11.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="10.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" customHeight="1">
+    <row r="1" spans="1:7" ht="14" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" customHeight="1">
+    <row r="2" spans="1:7" ht="14" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -579,7 +579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13" customHeight="1">
+    <row r="3" spans="1:7" ht="14" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -602,7 +602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" customHeight="1">
+    <row r="4" spans="1:7" ht="14" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -625,7 +625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13" customHeight="1">
+    <row r="5" spans="1:7" ht="14" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
